--- a/Product Manufacturing Information/Product Manufacturing Information - UGV-X1V3.xlsx
+++ b/Product Manufacturing Information/Product Manufacturing Information - UGV-X1V3.xlsx
@@ -452,14 +452,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -762,30 +762,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
@@ -833,7 +833,7 @@
       <c r="A6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -852,7 +852,7 @@
       <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="13" t="s">
         <v>53</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="13" t="s">
         <v>52</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="A11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="A12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="A13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="A14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="13" t="s">
         <v>54</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="A16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="A17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="A18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="A19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="A20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="A21" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="A22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="13" t="s">
         <v>34</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="A23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="A25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -1177,7 +1177,7 @@
       <c r="A26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="13" t="s">
         <v>23</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="A27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="13" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="A28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="A29" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="13" t="s">
         <v>25</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="A30" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="13" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="A31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="13" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="A32" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="13" t="s">
         <v>2</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="A33" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="13" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="A34" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="13" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="A35" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="13" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="A36" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="13"/>
       <c r="D36" s="11"/>
       <c r="E36" s="12"/>
@@ -1356,7 +1356,7 @@
       <c r="A37" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="13" t="s">
         <v>5</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="A38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="13" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="A39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="13" t="s">
         <v>7</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="A40" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -1424,7 +1424,7 @@
       <c r="A41" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="13" t="s">
         <v>43</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="A42" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="13" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="A43" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -1471,7 +1471,7 @@
       <c r="A44" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="13" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="A45" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="13" t="s">
         <v>29</v>
       </c>
@@ -1498,10 +1498,10 @@
       <c r="I45" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="16"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
